--- a/docs/Output/Excel/features.xlsx
+++ b/docs/Output/Excel/features.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <x:si>
     <x:t>Showing basic gherkin syntax</x:t>
   </x:si>
@@ -151,6 +151,12 @@
     <x:t>Tag demonstrator</x:t>
   </x:si>
   <x:si>
+    <x:t>Tags:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@allAboutTags, @important</x:t>
+  </x:si>
+  <x:si>
     <x:t>In order to show the capabilities of tags in SpecFlow  
 As a SpecFlow evanglist  
 I want to write scenarios that has tags and show their usage in code</x:t>
@@ -159,6 +165,9 @@
     <x:t>Ignored scenario</x:t>
   </x:si>
   <x:si>
+    <x:t>@ignore</x:t>
+  </x:si>
+  <x:si>
     <x:t>that my scenario has the @ignore tag</x:t>
   </x:si>
   <x:si>
@@ -183,6 +192,9 @@
     <x:t>A scenario with 1 tag</x:t>
   </x:si>
   <x:si>
+    <x:t>@testTag1</x:t>
+  </x:si>
+  <x:si>
     <x:t>that my scenario has 1 tags</x:t>
   </x:si>
   <x:si>
@@ -192,6 +204,9 @@
     <x:t>A scenario with 3 tags</x:t>
   </x:si>
   <x:si>
+    <x:t>@testTag1, @testTag2, @testTag3</x:t>
+  </x:si>
+  <x:si>
     <x:t>that my scenario has 3 tags</x:t>
   </x:si>
   <x:si>
@@ -199,6 +214,9 @@
   </x:si>
   <x:si>
     <x:t>A scenario with 2 tags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@testTag1, @testTag3</x:t>
   </x:si>
   <x:si>
     <x:t>that my scenario has 2 tags</x:t>
@@ -236,6 +254,9 @@
     <x:t>Examples</x:t>
   </x:si>
   <x:si>
+    <x:t>@small, @short_test</x:t>
+  </x:si>
+  <x:si>
     <x:t>number 1</x:t>
   </x:si>
   <x:si>
@@ -243,6 +264,9 @@
   </x:si>
   <x:si>
     <x:t>result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@big</x:t>
   </x:si>
   <x:si>
     <x:t>Add two negative numbers with many examples</x:t>
@@ -268,6 +292,9 @@
     <x:t>Showing information of the scenario</x:t>
   </x:si>
   <x:si>
+    <x:t>@showUpInScenarioInfo, @andThisToo</x:t>
+  </x:si>
+  <x:si>
     <x:t>I execute any scenario</x:t>
   </x:si>
   <x:si>
@@ -311,6 +338,9 @@
   </x:si>
   <x:si>
     <x:t>Display error information in AfterScenario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@ignore, @showingErrorHandling</x:t>
   </x:si>
   <x:si>
     <x:t>an error occurs in a step</x:t>
@@ -728,6 +758,9 @@
     <x:t>Nested - Add two numbers</x:t>
   </x:si>
   <x:si>
+    <x:t>@nestedFolders</x:t>
+  </x:si>
+  <x:si>
     <x:t>I have entered 50 into the calculator</x:t>
   </x:si>
   <x:si>
@@ -749,6 +782,9 @@
   </x:si>
   <x:si>
     <x:t>Mutliline Output</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@mytag</x:t>
   </x:si>
   <x:si>
     <x:t>I have read in some text from the user</x:t>
@@ -824,6 +860,9 @@
     <x:t>Sample Markdown Scenario Outline Example</x:t>
   </x:si>
   <x:si>
+    <x:t>@AddingATag</x:t>
+  </x:si>
+  <x:si>
     <x:t>This is [an example link to pickles](https://github.com/picklesdoc/pickles/wiki "Pickles") inline link.
 [This link to pickles](https://github.com/picklesdoc/pickles/wiki) has no title attribute.</x:t>
   </x:si>
@@ -955,6 +994,9 @@
     <x:t>Add two numbers</x:t>
   </x:si>
   <x:si>
+    <x:t>@arithmetic, @fast</x:t>
+  </x:si>
+  <x:si>
     <x:t>$50 + 70 = 120$</x:t>
   </x:si>
   <x:si>
@@ -1002,6 +1044,9 @@
     <x:t>Sine</x:t>
   </x:si>
   <x:si>
+    <x:t>@trigonometric, @fast</x:t>
+  </x:si>
+  <x:si>
     <x:t>I have entered 90 into the calculator</x:t>
   </x:si>
   <x:si>
@@ -1038,6 +1083,9 @@
   </x:si>
   <x:si>
     <x:t>Clear the screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@workflow, @slow</x:t>
   </x:si>
   <x:si>
     <x:t>I press C</x:t>
@@ -1119,7 +1167,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="6">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -1132,6 +1180,14 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF555555"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -1211,7 +1267,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1224,7 +1280,10 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1236,11 +1295,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1254,10 +1313,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1273,7 +1336,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1580,227 +1643,227 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="B2" s="8" t="s">
-        <x:v>277</x:v>
+      <x:c r="B2" s="9" t="s">
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="B3" s="8" t="s">
-        <x:v>292</x:v>
+      <x:c r="B3" s="9" t="s">
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="B4" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="C5" s="8" t="s">
+      <x:c r="C5" s="9" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="B6" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="C7" s="8" t="s">
+      <x:c r="C7" s="9" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="B8" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="C9" s="8" t="s">
+      <x:c r="C9" s="9" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="C10" s="8" t="s">
+      <x:c r="C10" s="9" t="s">
         <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="B11" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="C12" s="8" t="s">
-        <x:v>66</x:v>
+      <x:c r="C12" s="9" t="s">
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="B13" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="C14" s="8" t="s">
-        <x:v>91</x:v>
+      <x:c r="C14" s="9" t="s">
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="B15" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="C16" s="8" t="s">
-        <x:v>53</x:v>
+      <x:c r="C16" s="9" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="B17" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
-      <x:c r="C18" s="8" t="s">
-        <x:v>105</x:v>
+      <x:c r="C18" s="9" t="s">
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="B19" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
-      <x:c r="C20" s="8" t="s">
-        <x:v>114</x:v>
+      <x:c r="C20" s="9" t="s">
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="B21" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
-      <x:c r="C22" s="8" t="s">
-        <x:v>139</x:v>
+      <x:c r="C22" s="9" t="s">
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="B23" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
-      <x:c r="C24" s="8" t="s">
-        <x:v>151</x:v>
+      <x:c r="C24" s="9" t="s">
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
-      <x:c r="C25" s="8" t="s">
-        <x:v>162</x:v>
+      <x:c r="C25" s="9" t="s">
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="B26" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
-      <x:c r="C27" s="8" t="s">
-        <x:v>172</x:v>
+      <x:c r="C27" s="9" t="s">
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="B28" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
-      <x:c r="C29" s="8" t="s">
-        <x:v>182</x:v>
+      <x:c r="C29" s="9" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="B30" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
-      <x:c r="C31" s="8" t="s">
-        <x:v>193</x:v>
+      <x:c r="C31" s="9" t="s">
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="B32" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
-      <x:c r="C33" s="8" t="s">
-        <x:v>199</x:v>
+      <x:c r="C33" s="9" t="s">
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="B34" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="C35" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="D36" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
-      <x:c r="E37" s="8" t="s">
-        <x:v>215</x:v>
+      <x:c r="E37" s="9" t="s">
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="B38" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
-      <x:c r="C39" s="8" t="s">
-        <x:v>222</x:v>
+      <x:c r="C39" s="9" t="s">
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="B40" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
-      <x:c r="C41" s="8" t="s">
-        <x:v>231</x:v>
+      <x:c r="C41" s="9" t="s">
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="B42" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
-      <x:c r="C43" s="8" t="s">
-        <x:v>247</x:v>
+      <x:c r="C43" s="9" t="s">
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="B44" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
-      <x:c r="C45" s="8" t="s">
-        <x:v>304</x:v>
+      <x:c r="C45" s="9" t="s">
+        <x:v>319</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1842,7 +1905,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D8"/>
+  <x:dimension ref="A1:D9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1850,42 +1913,42 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>198</x:v>
+      <x:c r="D9" s="0" t="s">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1902,7 +1965,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D29"/>
+  <x:dimension ref="A1:D30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1910,138 +1973,138 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="B9" s="1" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4"/>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D8" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="B10" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4"/>
     <x:row r="12" spans="1:4">
       <x:c r="C12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4"/>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D13" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="B15" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4"/>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4"/>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D18" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4"/>
     <x:row r="22" spans="1:4">
       <x:c r="C22" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="C23" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4">
-      <x:c r="B25" s="1" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4"/>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D24" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="B26" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4"/>
     <x:row r="28" spans="1:4">
       <x:c r="C28" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="C29" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="C30" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>214</x:v>
+      <x:c r="D30" s="0" t="s">
+        <x:v>224</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2058,7 +2121,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2066,50 +2129,58 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>217</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>221</x:v>
+      <x:c r="D11" s="0" t="s">
+        <x:v>232</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2126,7 +2197,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D11"/>
+  <x:dimension ref="A1:D13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2134,57 +2205,65 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="D7" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
       <x:c r="D8" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="D9" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="D11" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D12" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>230</x:v>
+      <x:c r="D13" s="0" t="s">
+        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2201,7 +2280,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E21"/>
+  <x:dimension ref="A1:E24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2209,112 +2288,122 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="B2" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="B4" s="1" t="s"/>
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="C5" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
+      <x:c r="B5" s="1" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>107</x:v>
+      <x:c r="C6" s="0" t="s">
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="C8" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="B9" s="1" t="s">
-        <x:v>234</x:v>
+      <x:c r="D8" s="0" t="s">
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="C10" s="7" t="s">
-        <x:v>235</x:v>
+      <x:c r="B10" s="1" t="s">
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="C11" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>236</x:v>
+      <x:c r="C11" s="8" t="s">
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="C12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="C13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>237</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="B14" s="0" t="s">
-        <x:v>238</x:v>
+      <x:c r="D13" s="0" t="s">
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="C15" s="7" t="s">
-        <x:v>239</x:v>
+      <x:c r="B15" s="1" t="s">
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="C16" s="2" t="s">
+      <x:c r="B16" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="C17" s="8" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="C18" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>240</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D18" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="C19" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>241</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="B19" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="C20" s="0" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="D20" s="4" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="E20" s="4" t="s">
-        <x:v>244</x:v>
+      <x:c r="D19" s="0" t="s">
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
-      <x:c r="D21" s="5" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="E21" s="5" t="s">
-        <x:v>246</x:v>
+      <x:c r="B21" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="C22" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="D23" s="5" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E23" s="5" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="D24" s="6" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="E24" s="6" t="s">
+        <x:v>259</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2331,7 +2420,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E31"/>
+  <x:dimension ref="A1:E32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2339,226 +2428,226 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>247</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="B2" s="0" t="s">
-        <x:v>248</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="B4" s="1" t="s">
-        <x:v>249</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5"/>
-    <x:row r="6" spans="1:5">
-      <x:c r="C6" s="2" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="B5" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5"/>
+    <x:row r="7" spans="1:5">
+      <x:c r="C7" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>250</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="D7" s="4" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="E7" s="4" t="s">
-        <x:v>252</x:v>
+      <x:c r="D7" s="0" t="s">
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="D8" s="5" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="n">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="D9" s="6" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="D9" s="5" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E9" s="5" t="n">
+    <x:row r="10" spans="1:5">
+      <x:c r="D10" s="6" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="D10" s="5" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="n">
+    <x:row r="11" spans="1:5">
+      <x:c r="D11" s="6" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="n">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="D11" s="5" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="E11" s="5" t="n">
+    <x:row r="12" spans="1:5">
+      <x:c r="D12" s="6" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="D12" s="5" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="E12" s="5" t="n">
+    <x:row r="13" spans="1:5">
+      <x:c r="D13" s="6" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="D13" s="5" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="E13" s="5" t="n">
+    <x:row r="14" spans="1:5">
+      <x:c r="D14" s="6" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E14" s="6" t="n">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="D14" s="5" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="E14" s="5" t="n">
+    <x:row r="15" spans="1:5">
+      <x:c r="D15" s="6" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="D15" s="5" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="E15" s="5" t="n">
+    <x:row r="16" spans="1:5">
+      <x:c r="D16" s="6" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="n">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="D16" s="5" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="E16" s="5" t="n">
+    <x:row r="17" spans="1:5">
+      <x:c r="D17" s="6" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E17" s="6" t="n">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="D17" s="5" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="E17" s="5" t="n">
+    <x:row r="18" spans="1:5">
+      <x:c r="D18" s="6" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="n">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="D18" s="5" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="E18" s="5" t="n">
+    <x:row r="19" spans="1:5">
+      <x:c r="D19" s="6" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="n">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="D19" s="5" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="E19" s="5" t="n">
+    <x:row r="20" spans="1:5">
+      <x:c r="D20" s="6" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="E20" s="6" t="n">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="D20" s="5" t="s">
-        <x:v>265</x:v>
-      </x:c>
-      <x:c r="E20" s="5" t="n">
+    <x:row r="21" spans="1:5">
+      <x:c r="D21" s="6" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="E21" s="6" t="n">
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="D21" s="5" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E21" s="5" t="n">
+    <x:row r="22" spans="1:5">
+      <x:c r="D22" s="6" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="E22" s="6" t="n">
         <x:v>65</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="D22" s="5" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="E22" s="5" t="n">
+    <x:row r="23" spans="1:5">
+      <x:c r="D23" s="6" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E23" s="6" t="n">
         <x:v>70</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="D23" s="5" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="E23" s="5" t="n">
+    <x:row r="24" spans="1:5">
+      <x:c r="D24" s="6" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="E24" s="6" t="n">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="D24" s="5" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="E24" s="5" t="n">
+    <x:row r="25" spans="1:5">
+      <x:c r="D25" s="6" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="E25" s="6" t="n">
         <x:v>80</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="D25" s="5" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="E25" s="5" t="n">
+    <x:row r="26" spans="1:5">
+      <x:c r="D26" s="6" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="E26" s="6" t="n">
         <x:v>85</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="D26" s="5" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="E26" s="5" t="n">
+    <x:row r="27" spans="1:5">
+      <x:c r="D27" s="6" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="E27" s="6" t="n">
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="D27" s="5" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="E27" s="5" t="n">
+    <x:row r="28" spans="1:5">
+      <x:c r="D28" s="6" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="E28" s="6" t="n">
         <x:v>95</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="D28" s="5" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="E28" s="5" t="n">
+    <x:row r="29" spans="1:5">
+      <x:c r="D29" s="6" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="E29" s="6" t="n">
         <x:v>100</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="D29" s="5" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="E29" s="5" t="n">
+    <x:row r="30" spans="1:5">
+      <x:c r="D30" s="6" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="E30" s="6" t="n">
         <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="C30" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="C31" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="C32" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>276</x:v>
+      <x:c r="D32" s="0" t="s">
+        <x:v>289</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2575,7 +2664,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D31"/>
+  <x:dimension ref="A1:D36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2583,173 +2672,205 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s">
-        <x:v>280</x:v>
+      <x:c r="B5" s="1" t="s">
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>281</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>218</x:v>
+      <x:c r="C7" s="0" t="s">
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>219</x:v>
+      <x:c r="C8" s="4" t="s">
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4"/>
+      <x:c r="D12" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
     <x:row r="14" spans="1:4">
-      <x:c r="C14" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>218</x:v>
+      <x:c r="B14" s="1" t="s">
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
-      <x:c r="C15" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B15" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4"/>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4"/>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D20" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="B22" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="B23" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4"/>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D25" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D26" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>286</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="B26" s="1" t="s">
-        <x:v>288</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4"/>
+      <x:c r="D27" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="C28" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="B30" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4"/>
+    <x:row r="33" spans="1:4">
+      <x:c r="C33" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D33" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>289</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D34" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D35" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="C36" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>291</x:v>
+      <x:c r="D36" s="0" t="s">
+        <x:v>305</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2766,7 +2887,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D20"/>
+  <x:dimension ref="A1:D24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2774,102 +2895,126 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>292</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>294</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>295</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>296</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="B10" s="1" t="s">
-        <x:v>298</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4"/>
+      <x:c r="D10" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
+      <x:c r="B12" s="1" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D15" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D16" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="B16" s="1" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4"/>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D17" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4"/>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D22" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D23" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>297</x:v>
+      <x:c r="D24" s="0" t="s">
+        <x:v>312</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2886,7 +3031,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2894,50 +3039,58 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>308</x:v>
+      <x:c r="D11" s="0" t="s">
+        <x:v>324</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2954,7 +3107,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D17"/>
+  <x:dimension ref="A1:D18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2965,92 +3118,92 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="B10" s="1" t="s">
+    <x:row r="11" spans="1:4">
+      <x:c r="B11" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:4"/>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="12" spans="1:4"/>
     <x:row r="13" spans="1:4">
       <x:c r="C13" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="C14" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="C15" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="C16" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="D18" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
@@ -3068,7 +3221,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D8"/>
+  <x:dimension ref="A1:D9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3079,38 +3232,38 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
@@ -3128,7 +3281,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D27"/>
+  <x:dimension ref="A1:D28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3139,118 +3292,118 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="B9" s="1" t="s">
+    <x:row r="10" spans="1:4">
+      <x:c r="B10" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4"/>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="11" spans="1:4"/>
     <x:row r="12" spans="1:4">
       <x:c r="C12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="D13" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
+    <x:row r="15" spans="1:4">
+      <x:c r="B15" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4"/>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="16" spans="1:4"/>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="D18" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:4"/>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="21" spans="1:4"/>
     <x:row r="22" spans="1:4">
       <x:c r="C22" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
+      <x:c r="D23" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="B24" s="1" t="s">
+    <x:row r="25" spans="1:4">
+      <x:c r="B25" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:4"/>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="26" spans="1:4"/>
     <x:row r="27" spans="1:4">
       <x:c r="C27" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D27" s="0" t="s">
+      <x:c r="D28" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
@@ -3268,7 +3421,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D33"/>
+  <x:dimension ref="A1:D38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3280,166 +3433,206 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
+      <x:c r="C2" s="3" t="s">
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4"/>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="B11" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4"/>
+      <x:c r="D11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
     <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="C14" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B13" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
     <x:row r="15" spans="1:4">
       <x:c r="C15" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="B17" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4"/>
+      <x:c r="D17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
     <x:row r="19" spans="1:4">
-      <x:c r="C19" s="2" t="s">
+      <x:c r="B19" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4"/>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D22" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D23" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="B23" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4"/>
-    <x:row r="25" spans="1:4">
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D24" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="B26" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="B27" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4"/>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D29" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="C30" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="B29" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4"/>
+      <x:c r="D30" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="C31" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="B33" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="B34" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C34" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4"/>
+    <x:row r="36" spans="1:4">
+      <x:c r="C36" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4">
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D36" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="C37" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:4">
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D37" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="C38" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>52</x:v>
+      <x:c r="D38" s="0" t="s">
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3456,7 +3649,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F37"/>
+  <x:dimension ref="A1:F38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3464,26 +3657,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="B2" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="B4" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6"/>
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="B3" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="B5" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -3491,7 +3683,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -3499,7 +3691,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -3507,223 +3699,238 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="C10" s="3" t="s">
-        <x:v>60</x:v>
+      <x:c r="C10" s="4" t="s">
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="B12" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="D13" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E13" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F13" s="4" t="s">
-        <x:v>64</x:v>
+      <x:c r="C13" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s">
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="D14" s="5" t="n">
+      <x:c r="D14" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E14" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="D15" s="6" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E14" s="5" t="n">
+      <x:c r="E15" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F14" s="5" t="n">
+      <x:c r="F15" s="6" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="D15" s="5" t="n">
+    <x:row r="16" spans="1:6">
+      <x:c r="D16" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E15" s="5" t="n">
+      <x:c r="E16" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F15" s="5" t="n">
+      <x:c r="F16" s="6" t="n">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="D16" s="5" t="n">
+    <x:row r="17" spans="1:6">
+      <x:c r="D17" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E16" s="5" t="n">
+      <x:c r="E17" s="6" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F16" s="5" t="n">
+      <x:c r="F17" s="6" t="n">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="B17" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
     <x:row r="18" spans="1:6">
-      <x:c r="D18" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E18" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F18" s="4" t="s">
-        <x:v>64</x:v>
+      <x:c r="B18" s="0" t="s">
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
-      <x:c r="D19" s="5" t="n">
+      <x:c r="C19" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="D20" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E20" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F20" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="D21" s="6" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="E19" s="5" t="n">
+      <x:c r="E21" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F19" s="5" t="n">
+      <x:c r="F21" s="6" t="n">
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="D20" s="5" t="n">
+    <x:row r="22" spans="1:6">
+      <x:c r="D22" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="E20" s="5" t="n">
+      <x:c r="E22" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F20" s="5" t="n">
+      <x:c r="F22" s="6" t="n">
         <x:v>1020</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="B22" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6"/>
     <x:row r="24" spans="1:6">
-      <x:c r="C24" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>56</x:v>
+      <x:c r="B24" s="1" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="C25" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="C26" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="C27" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="C28" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:6">
-      <x:c r="B29" s="0" t="s">
-        <x:v>61</x:v>
+      <x:c r="D28" s="0" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
-      <x:c r="D30" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E30" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F30" s="4" t="s">
-        <x:v>64</x:v>
+      <x:c r="B30" s="0" t="s">
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
-      <x:c r="D31" s="5" t="n">
+      <x:c r="D31" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E31" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F31" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="D32" s="6" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E31" s="5" t="n">
+      <x:c r="E32" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F31" s="5" t="n">
+      <x:c r="F32" s="6" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6">
-      <x:c r="D32" s="5" t="n">
+    <x:row r="33" spans="1:6">
+      <x:c r="D33" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E32" s="5" t="n">
+      <x:c r="E33" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F32" s="5" t="n">
+      <x:c r="F33" s="6" t="n">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6">
-      <x:c r="D33" s="5" t="n">
+    <x:row r="34" spans="1:6">
+      <x:c r="D34" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E33" s="5" t="n">
+      <x:c r="E34" s="6" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F33" s="5" t="n">
+      <x:c r="F34" s="6" t="n">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6">
-      <x:c r="B34" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
     <x:row r="35" spans="1:6">
-      <x:c r="D35" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E35" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F35" s="4" t="s">
-        <x:v>64</x:v>
+      <x:c r="B35" s="0" t="s">
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
-      <x:c r="D36" s="5" t="n">
+      <x:c r="D36" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E36" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F36" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="D37" s="6" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="E36" s="5" t="n">
+      <x:c r="E37" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F36" s="5" t="n">
+      <x:c r="F37" s="6" t="n">
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6">
-      <x:c r="D37" s="5" t="n">
+    <x:row r="38" spans="1:6">
+      <x:c r="D38" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="E37" s="5" t="n">
+      <x:c r="E38" s="6" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F37" s="5" t="n">
+      <x:c r="F38" s="6" t="n">
         <x:v>1020</x:v>
       </x:c>
     </x:row>
@@ -3741,7 +3948,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E33"/>
+  <x:dimension ref="A1:E36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3749,164 +3956,180 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="B2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="B4" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5"/>
-    <x:row r="6" spans="1:5">
-      <x:c r="C6" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="B5" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5"/>
     <x:row r="7" spans="1:5">
       <x:c r="C7" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="C8" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="B9" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5"/>
+      <x:c r="D8" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="B10" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="C11" s="2" t="s">
+      <x:c r="B11" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5"/>
+    <x:row r="13" spans="1:5">
+      <x:c r="C13" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D13" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="C14" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="D13" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E13" s="4" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="D14" s="5" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E14" s="5" t="s">
-        <x:v>77</x:v>
+      <x:c r="D14" s="0" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="D15" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="D16" s="6" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="B17" s="1" t="s">
+      <x:c r="D17" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E17" s="6" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5"/>
     <x:row r="19" spans="1:5">
-      <x:c r="C19" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="C20" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B19" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5"/>
     <x:row r="21" spans="1:5">
       <x:c r="C21" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="C22" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="C23" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="C24" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="C23" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="C24" s="3" t="s">
-        <x:v>85</x:v>
+      <x:c r="D24" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="C25" s="4" t="s">
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="B26" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5"/>
+      <x:c r="C26" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
     <x:row r="28" spans="1:5">
-      <x:c r="C28" s="2" t="s">
+      <x:c r="B28" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="B29" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5"/>
+    <x:row r="31" spans="1:5">
+      <x:c r="C31" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="B30" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5"/>
-    <x:row r="32" spans="1:5">
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D31" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="B33" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5"/>
+    <x:row r="35" spans="1:5">
+      <x:c r="C35" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:5">
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D35" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="C36" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>90</x:v>
+      <x:c r="D36" s="0" t="s">
+        <x:v>100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3923,7 +4146,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E18"/>
+  <x:dimension ref="A1:E19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3931,104 +4154,112 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="B2" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="B4" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5"/>
-    <x:row r="6" spans="1:5">
-      <x:c r="C6" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B2" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="B5" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5"/>
     <x:row r="7" spans="1:5">
       <x:c r="C7" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="C8" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="B9" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5"/>
-    <x:row r="11" spans="1:5">
-      <x:c r="C11" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D8" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="B10" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5"/>
     <x:row r="12" spans="1:5">
       <x:c r="C12" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="C13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="D13" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E13" s="4" t="s">
-        <x:v>75</x:v>
+      <x:c r="D13" s="0" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="D14" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="D15" s="5" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E15" s="5" t="s">
-        <x:v>91</x:v>
+      <x:c r="D15" s="6" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="D16" s="5" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E16" s="5" t="s">
-        <x:v>100</x:v>
+      <x:c r="D16" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="s">
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="D17" s="5" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E17" s="5" t="s">
-        <x:v>102</x:v>
+      <x:c r="D17" s="6" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E17" s="6" t="s">
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
-      <x:c r="D18" s="5" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E18" s="5" t="s">
-        <x:v>104</x:v>
+      <x:c r="D18" s="6" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="D19" s="6" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="s">
+        <x:v>114</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4045,7 +4276,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D17"/>
+  <x:dimension ref="A1:D18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4053,76 +4284,76 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-    </x:row>
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="B9" s="1" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4"/>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D8" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="B10" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4"/>
     <x:row r="12" spans="1:4">
       <x:c r="C12" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4"/>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D13" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="B15" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4"/>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>113</x:v>
+      <x:c r="D18" s="0" t="s">
+        <x:v>123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4139,7 +4370,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AI44"/>
+  <x:dimension ref="A1:AI45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4147,539 +4378,539 @@
   <x:sheetData>
     <x:row r="1" spans="1:35">
       <x:c r="A1" s="1" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:35">
-      <x:c r="B2" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:35">
-      <x:c r="B4" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:35"/>
-    <x:row r="6" spans="1:35">
-      <x:c r="C6" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:35">
+      <x:c r="B3" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:35">
+      <x:c r="B5" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:35"/>
+    <x:row r="7" spans="1:35">
+      <x:c r="C7" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:35">
-      <x:c r="D7" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E7" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F7" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G7" s="4" t="s">
-        <x:v>121</x:v>
+      <x:c r="D7" s="0" t="s">
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:35">
       <x:c r="D8" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F8" s="6">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F8" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G8" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:35">
+      <x:c r="D9" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F9" s="7">
         <x:v>26581</x:v>
       </x:c>
-      <x:c r="G8" s="5" t="n">
+      <x:c r="G9" s="6" t="n">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:35">
-      <x:c r="D9" s="5" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E9" s="5" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F9" s="6">
+    <x:row r="10" spans="1:35">
+      <x:c r="D10" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F10" s="7">
         <x:v>28126</x:v>
       </x:c>
-      <x:c r="G9" s="5" t="n">
+      <x:c r="G10" s="6" t="n">
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:35">
-      <x:c r="D10" s="5" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F10" s="6">
+    <x:row r="11" spans="1:35">
+      <x:c r="D11" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F11" s="7">
         <x:v>27123</x:v>
       </x:c>
-      <x:c r="G10" s="5" t="n">
+      <x:c r="G11" s="6" t="n">
         <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:35">
-      <x:c r="C11" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:35">
       <x:c r="C12" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:35">
+      <x:c r="C13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:35">
-      <x:c r="D13" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E13" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F13" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G13" s="4" t="s">
-        <x:v>121</x:v>
+      <x:c r="D13" s="0" t="s">
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:35">
       <x:c r="D14" s="5" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F14" s="6">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G14" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:35">
+      <x:c r="D15" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F15" s="7">
         <x:v>27123</x:v>
       </x:c>
-      <x:c r="G14" s="5" t="n">
+      <x:c r="G15" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:35">
-      <x:c r="B16" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:35"/>
-    <x:row r="18" spans="1:35">
-      <x:c r="C18" s="2" t="s">
+    <x:row r="17" spans="1:35">
+      <x:c r="B17" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:35"/>
+    <x:row r="19" spans="1:35">
+      <x:c r="C19" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:35">
-      <x:c r="D19" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E19" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F19" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G19" s="4" t="s">
-        <x:v>121</x:v>
+      <x:c r="D19" s="0" t="s">
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:35">
       <x:c r="D20" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F20" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G20" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:35">
+      <x:c r="D21" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="F20" s="6">
+      <x:c r="E21" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F21" s="7">
         <x:v>26581</x:v>
       </x:c>
-      <x:c r="G20" s="5" t="n">
+      <x:c r="G21" s="6" t="n">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:35">
-      <x:c r="D21" s="5" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E21" s="5" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F21" s="6">
+    <x:row r="22" spans="1:35">
+      <x:c r="D22" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E22" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F22" s="7">
         <x:v>28126</x:v>
       </x:c>
-      <x:c r="G21" s="5" t="n">
+      <x:c r="G22" s="6" t="n">
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:35">
-      <x:c r="D22" s="5" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E22" s="5" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F22" s="6">
+    <x:row r="23" spans="1:35">
+      <x:c r="D23" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E23" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F23" s="7">
         <x:v>27123</x:v>
       </x:c>
-      <x:c r="G22" s="5" t="n">
+      <x:c r="G23" s="6" t="n">
         <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:35">
-      <x:c r="C23" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:35">
       <x:c r="C24" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:35">
+      <x:c r="C25" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:35">
-      <x:c r="D25" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E25" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F25" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G25" s="4" t="s">
-        <x:v>121</x:v>
+      <x:c r="D25" s="0" t="s">
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:35">
       <x:c r="D26" s="5" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E26" s="5" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F26" s="6">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F26" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G26" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:35">
+      <x:c r="D27" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E27" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F27" s="7">
         <x:v>27123</x:v>
       </x:c>
-      <x:c r="G26" s="5" t="n">
+      <x:c r="G27" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:35">
-      <x:c r="B28" s="1" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:35"/>
-    <x:row r="30" spans="1:35">
-      <x:c r="C30" s="2" t="s">
+    <x:row r="29" spans="1:35">
+      <x:c r="B29" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:35"/>
+    <x:row r="31" spans="1:35">
+      <x:c r="C31" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:35">
-      <x:c r="D31" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E31" s="4" t="s">
-        <x:v>75</x:v>
+      <x:c r="D31" s="0" t="s">
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:35">
       <x:c r="D32" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E32" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:35">
-      <x:c r="D33" s="5" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E33" s="5" t="s">
-        <x:v>136</x:v>
+      <x:c r="D33" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E33" s="6" t="s">
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:35">
-      <x:c r="D34" s="5" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E34" s="6">
+      <x:c r="D34" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E34" s="6" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:35">
+      <x:c r="D35" s="6" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E35" s="7">
         <x:v>26581</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:35">
-      <x:c r="D35" s="5" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E35" s="5" t="n">
+    <x:row r="36" spans="1:35">
+      <x:c r="D36" s="6" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E36" s="6" t="n">
         <x:v>100</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:35">
-      <x:c r="C36" s="2" t="s">
+    <x:row r="37" spans="1:35">
+      <x:c r="C37" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:35">
-      <x:c r="D37" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E37" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F37" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G37" s="4" t="s">
-        <x:v>121</x:v>
+      <x:c r="D37" s="0" t="s">
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:35">
       <x:c r="D38" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E38" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F38" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G38" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:35">
+      <x:c r="D39" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="F38" s="6">
+      <x:c r="E39" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F39" s="7">
         <x:v>26581</x:v>
       </x:c>
-      <x:c r="G38" s="5" t="n">
+      <x:c r="G39" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:35">
-      <x:c r="B40" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:35"/>
-    <x:row r="42" spans="1:35">
-      <x:c r="C42" s="2" t="s">
+    <x:row r="41" spans="1:35">
+      <x:c r="B41" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:35"/>
+    <x:row r="43" spans="1:35">
+      <x:c r="C43" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:35">
-      <x:c r="D43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G43" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="H43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="J43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="K43" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="L43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="M43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="N43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="O43" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="P43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="Q43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="R43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="S43" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="T43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="U43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="V43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="W43" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="X43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="Y43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="Z43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="AA43" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="AB43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AC43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="AD43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="AE43" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="AF43" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AG43" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="AH43" s="4" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="AI43" s="4" t="s">
-        <x:v>121</x:v>
+      <x:c r="D43" s="0" t="s">
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:35">
       <x:c r="D44" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="J44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="K44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="L44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="M44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="N44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="P44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="Q44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="R44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="S44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="T44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="U44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="V44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="W44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="X44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="Y44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="Z44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AA44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AB44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AC44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AD44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AE44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AF44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AG44" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AH44" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AI44" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:35">
+      <x:c r="D45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="F44" s="6">
+      <x:c r="E45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="G44" s="5" t="n">
+      <x:c r="G45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="H44" s="5" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I44" s="5" t="s">
+      <x:c r="H45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="J44" s="6">
+      <x:c r="I45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="J45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="K44" s="5" t="n">
+      <x:c r="K45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="L44" s="5" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="M44" s="5" t="s">
+      <x:c r="L45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="N44" s="6">
+      <x:c r="M45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="N45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="O44" s="5" t="n">
+      <x:c r="O45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="P44" s="5" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="Q44" s="5" t="s">
+      <x:c r="P45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="R44" s="6">
+      <x:c r="Q45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="R45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="S44" s="5" t="n">
+      <x:c r="S45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="T44" s="5" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="U44" s="5" t="s">
+      <x:c r="T45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="V44" s="6">
+      <x:c r="U45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="V45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="W44" s="5" t="n">
+      <x:c r="W45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="X44" s="5" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="Y44" s="5" t="s">
+      <x:c r="X45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="Z44" s="6">
+      <x:c r="Y45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="Z45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="AA44" s="5" t="n">
+      <x:c r="AA45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="AB44" s="5" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="AC44" s="5" t="s">
+      <x:c r="AB45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="AD44" s="6">
+      <x:c r="AC45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AD45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="AE44" s="5" t="n">
+      <x:c r="AE45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="AF44" s="5" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="AG44" s="5" t="s">
+      <x:c r="AF45" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="AH44" s="6">
+      <x:c r="AG45" s="6" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AH45" s="7">
         <x:v>26552</x:v>
       </x:c>
-      <x:c r="AI44" s="5" t="n">
+      <x:c r="AI45" s="6" t="n">
         <x:v>1000</x:v>
       </x:c>
     </x:row>
@@ -4697,7 +4928,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F43"/>
+  <x:dimension ref="A1:F44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4705,330 +4936,330 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="1" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="B2" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="B4" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6"/>
-    <x:row r="6" spans="1:6">
-      <x:c r="C6" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="B3" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="B5" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6"/>
+    <x:row r="7" spans="1:6">
+      <x:c r="C7" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="D7" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E7" s="4" t="s">
-        <x:v>75</x:v>
+      <x:c r="D7" s="0" t="s">
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="D8" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
-      <x:c r="D9" s="5" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E9" s="5" t="s">
-        <x:v>125</x:v>
+      <x:c r="D9" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="D10" s="5" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E10" s="6">
+      <x:c r="D10" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="D11" s="6" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E11" s="7">
         <x:v>26581</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="C11" s="2" t="s">
+    <x:row r="12" spans="1:6">
+      <x:c r="C12" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="D12" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E12" s="4" t="s">
-        <x:v>75</x:v>
+      <x:c r="D12" s="0" t="s">
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="D13" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
-      <x:c r="D14" s="5" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E14" s="5" t="s">
-        <x:v>125</x:v>
+      <x:c r="D14" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E14" s="6" t="s">
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="D15" s="5" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E15" s="6">
+      <x:c r="D15" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="D16" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E16" s="7">
         <x:v>26552</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="C16" s="2" t="s">
+    <x:row r="17" spans="1:6">
+      <x:c r="C17" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="D17" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E17" s="4" t="s">
-        <x:v>75</x:v>
+      <x:c r="D17" s="0" t="s">
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="D18" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E18" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
-      <x:c r="D19" s="5" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E19" s="6">
+      <x:c r="D19" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="D20" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E20" s="7">
         <x:v>26552</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="C20" s="2" t="s">
+    <x:row r="21" spans="1:6">
+      <x:c r="C21" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="C21" s="3" t="s">
-        <x:v>146</x:v>
+      <x:c r="D21" s="0" t="s">
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
-      <x:c r="C22" s="3" t="s">
-        <x:v>147</x:v>
+      <x:c r="C22" s="4" t="s">
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
-      <x:c r="D23" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E23" s="4" t="s">
-        <x:v>75</x:v>
+      <x:c r="C23" s="4" t="s">
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="D24" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E24" s="5" t="s">
-        <x:v>124</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
-      <x:c r="D25" s="5" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E25" s="5" t="s">
-        <x:v>136</x:v>
+      <x:c r="D25" s="6" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E25" s="6" t="s">
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
-      <x:c r="D26" s="5" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E26" s="6">
+      <x:c r="D26" s="6" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E26" s="6" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="D27" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E27" s="7">
         <x:v>27282</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6">
-      <x:c r="B28" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:6"/>
-    <x:row r="30" spans="1:6">
-      <x:c r="C30" s="2" t="s">
+    <x:row r="29" spans="1:6">
+      <x:c r="B29" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6"/>
+    <x:row r="31" spans="1:6">
+      <x:c r="C31" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:6">
-      <x:c r="D31" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E31" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F31" s="4" t="s">
-        <x:v>120</x:v>
+      <x:c r="D31" s="0" t="s">
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="D32" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E32" s="5" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F32" s="6">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F32" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="D33" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E33" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F33" s="7">
         <x:v>26581</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6">
-      <x:c r="D33" s="5" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E33" s="5" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F33" s="6">
+    <x:row r="34" spans="1:6">
+      <x:c r="D34" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E34" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F34" s="7">
         <x:v>28126</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6">
-      <x:c r="D34" s="5" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E34" s="5" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F34" s="6">
+    <x:row r="35" spans="1:6">
+      <x:c r="D35" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E35" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F35" s="7">
         <x:v>27123</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6">
-      <x:c r="C35" s="2" t="s">
+    <x:row r="36" spans="1:6">
+      <x:c r="C36" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:6">
-      <x:c r="D36" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E36" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F36" s="4" t="s">
-        <x:v>144</x:v>
+      <x:c r="D36" s="0" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="D37" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E37" s="5" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F37" s="6">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F37" s="5" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="D38" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E38" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F38" s="7">
         <x:v>26552</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6">
-      <x:c r="D38" s="5" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E38" s="5" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F38" s="6">
+    <x:row r="39" spans="1:6">
+      <x:c r="D39" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E39" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F39" s="7">
         <x:v>28126</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6">
-      <x:c r="D39" s="5" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E39" s="5" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F39" s="6">
+    <x:row r="40" spans="1:6">
+      <x:c r="D40" s="6" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E40" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F40" s="7">
         <x:v>27123</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6">
-      <x:c r="C40" s="2" t="s">
+    <x:row r="41" spans="1:6">
+      <x:c r="C41" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:6">
-      <x:c r="D41" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E41" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F41" s="4" t="s">
-        <x:v>144</x:v>
+      <x:c r="D41" s="0" t="s">
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="D42" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E42" s="5" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F42" s="6">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F42" s="5" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="D43" s="6" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E43" s="6" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F43" s="7">
         <x:v>26552</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6">
-      <x:c r="D43" s="5" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E43" s="5" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F43" s="6">
+    <x:row r="44" spans="1:6">
+      <x:c r="D44" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E44" s="6" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F44" s="7">
         <x:v>28126</x:v>
       </x:c>
     </x:row>
@@ -5046,7 +5277,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5054,50 +5285,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5114,7 +5345,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5122,46 +5353,46 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4"/>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>165</x:v>
-      </x:c>
-    </x:row>
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4"/>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>181</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5178,7 +5409,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D12"/>
+  <x:dimension ref="A1:D13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5186,34 +5417,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -5221,39 +5444,47 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="C11" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="C12" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>181</x:v>
+      <x:c r="D13" s="0" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5270,7 +5501,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D15"/>
+  <x:dimension ref="A1:D16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5278,80 +5509,80 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4"/>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="B11" s="1" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4"/>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D10" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4"/>
     <x:row r="14" spans="1:4">
       <x:c r="C14" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="C15" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>192</x:v>
+      <x:c r="D16" s="0" t="s">
+        <x:v>202</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
